--- a/biology/Histoire de la zoologie et de la botanique/Johann_Gottfried_Bremser/Johann_Gottfried_Bremser.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Gottfried_Bremser/Johann_Gottfried_Bremser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Gottfried Bremser est un médecin et un parasitologiste autrichien, né le 19 août 1767 à Wertheim et mort le 21 août 1827 à Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la zoologie à Iéna où il est diplômé en 1792. Il commence alors à étudier la médecine à Vienne. En 1806, il commence à travailler au Muséum de Vienne où il devient conservateur en 1811. En 1815, il séjourne à Paris pour continuer ses recherches.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outre ses travaux sur les parasites, il est l’auteur de l’un des premiers traités d’helminthologie, Bremser fait paraître diverses publications sur la scarlatine, la vaccine et la rougeole.
 Traité sur les vers intestinaux (1824)</t>
@@ -573,7 +589,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">David Ian Grove (2000). A History of human helminthology, Red-e2.com (Adélaïde, Australie) : 815 p.  (ISBN 1-876809-08-6)
  Portail de l’histoire de la zoologie et de la botanique   Portail de la parasitologie   Portail du Saint-Empire romain germanique   Portail de l’Empire autrichien                  </t>
